--- a/data/trans_orig/Q61A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.015874108345615</v>
+        <v>2.941607003306668</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.407094077042327</v>
+        <v>8.287266620452831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.816880466122981</v>
+        <v>6.686355680560519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.412405779672027</v>
+        <v>5.836253793713003</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.037121994742972</v>
+        <v>3.998516442174287</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.541604622492459</v>
+        <v>9.608074019491402</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.531748117055217</v>
+        <v>8.592182339947447</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.404232141637014</v>
+        <v>4.379380021906472</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.858606208084226</v>
+        <v>3.762301231626832</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9.238351880752266</v>
+        <v>9.337544650123167</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8.313726783370853</v>
+        <v>8.286073941440213</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.692248313072234</v>
+        <v>5.80390118942691</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.179540308138578</v>
+        <v>5.15212014666306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.39930644400273</v>
+        <v>11.31829430915011</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.82301419245015</v>
+        <v>11.88420180912192</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.21932114056697</v>
+        <v>16.80311806631421</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.49420565612593</v>
+        <v>7.2232471630767</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.54499952561703</v>
+        <v>14.79339330975668</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.38648648084686</v>
+        <v>14.34103761285886</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.03556820642515</v>
+        <v>10.9968479255704</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.79927809657545</v>
+        <v>5.808054116352924</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11.84900775748203</v>
+        <v>12.0479016830766</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12.14735163340482</v>
+        <v>12.00501334094549</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>13.22837097304728</v>
+        <v>12.7416766971092</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>14.3304028509259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.847379946129072</v>
+        <v>9.847379946129069</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>5.433189140131432</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.416966165568958</v>
+        <v>3.371403526342321</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.60295308702228</v>
+        <v>10.62602322828687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11.82348493059857</v>
+        <v>11.83501592208762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.568302587526495</v>
+        <v>6.508614686066722</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>4.30197385769343</v>
+        <v>4.363500279705423</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.03574742126137</v>
+        <v>12.95899144097909</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>15.39494756622294</v>
+        <v>15.76137756687609</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.305745171784718</v>
+        <v>8.440602731669561</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.975315565570891</v>
+        <v>4.064598390861035</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12.1345344934089</v>
+        <v>12.10506866422024</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14.36975308155172</v>
+        <v>14.27938117402898</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>8.564774813813235</v>
+        <v>8.48869040067633</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.204909358792082</v>
+        <v>5.176243420405826</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.91675637952539</v>
+        <v>15.54912846618874</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.96550085912689</v>
+        <v>17.97097780409678</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.6071338329601</v>
+        <v>16.31865982836778</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.216894810860756</v>
+        <v>7.141737128378921</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.72141983724705</v>
+        <v>17.62346688657477</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>21.60628887345083</v>
+        <v>21.64163899891324</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>15.74485384229725</v>
+        <v>16.27146941198706</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.638312498208726</v>
+        <v>5.60132871921941</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15.51596145587266</v>
+        <v>15.46383360390516</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18.64440469742346</v>
+        <v>18.82498755518852</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>14.84228695503052</v>
+        <v>14.24138488968478</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>19.32061877918574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11.691325762165</v>
+        <v>11.69132576216501</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>8.714040939641638</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.430427389601669</v>
+        <v>3.590345102965341</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.61180985977685</v>
+        <v>11.63398103070579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.48835783389409</v>
+        <v>16.55526843323926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.725808143763953</v>
+        <v>8.803770358850832</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.379828414527691</v>
+        <v>6.340795812904991</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.54526538450015</v>
+        <v>16.40980149224807</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>19.67024471308948</v>
+        <v>20.10597745379431</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>12.78916832854524</v>
+        <v>12.88505351403044</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.688431388782806</v>
+        <v>5.816561897422662</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14.44362311910129</v>
+        <v>14.43555963369334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19.11663964022771</v>
+        <v>18.82961313624088</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>12.09509939668231</v>
+        <v>12.17118124883213</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.350835102550432</v>
+        <v>8.625289372795143</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.00612871264566</v>
+        <v>14.93622328098431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.83708271455059</v>
+        <v>22.93736040655043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.6504967258883</v>
+        <v>15.74528581338892</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.47479510228764</v>
+        <v>15.78089285122911</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>23.44251643142552</v>
+        <v>23.25230570366097</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>28.66129051337117</v>
+        <v>28.70782636281352</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.17419341366362</v>
+        <v>17.90798701306976</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.14452366800626</v>
+        <v>10.86832355041921</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.37238979909129</v>
+        <v>18.26864739012468</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24.8248992208493</v>
+        <v>24.67509215493844</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.23413853119896</v>
+        <v>16.1737418101916</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>23.10377575756361</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24.65862270479998</v>
+        <v>24.65862270479999</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>14.44479238058129</v>
@@ -1089,7 +1089,7 @@
         <v>26.02982885430835</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>31.80971209435854</v>
+        <v>31.80971209435855</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>12.1633988175148</v>
@@ -1101,7 +1101,7 @@
         <v>24.47065823258149</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>28.76953204456472</v>
+        <v>28.76953204456473</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.15496826858329</v>
+        <v>6.086614786064763</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.76590072127515</v>
+        <v>14.02275817333066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20.35202379217544</v>
+        <v>20.30462852233154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19.2855567452618</v>
+        <v>18.53002982467689</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.55559956043347</v>
+        <v>6.778624402538036</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.18301095721967</v>
+        <v>15.37587384175401</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>21.1954322961829</v>
+        <v>21.80922599615066</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>25.44916279989631</v>
+        <v>25.68237400521416</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.660869771973455</v>
+        <v>7.661350746318604</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15.24556223251357</v>
+        <v>15.36485460670537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21.65900512418509</v>
+        <v>21.74342133046139</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>23.30377035108328</v>
+        <v>23.48602547300512</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.73916093979155</v>
+        <v>14.34885569487427</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.25146682969238</v>
+        <v>18.76285239150634</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.89658068097769</v>
+        <v>26.56215417350364</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>37.09583947308336</v>
+        <v>37.332777834106</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>35.3776777945238</v>
+        <v>39.34356991329729</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.07578781155252</v>
+        <v>25.95900000771289</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>32.0494905790159</v>
+        <v>33.74327411793715</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>41.01091409543064</v>
+        <v>41.53923092110857</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>25.23698404796611</v>
+        <v>23.00106321368639</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20.18894769386302</v>
+        <v>20.32689747148671</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27.88862182604013</v>
+        <v>27.90520440021713</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>34.9384711742945</v>
+        <v>35.57133268349324</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>29.63673907606346</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31.53621947719967</v>
+        <v>31.53621947719966</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>9.317676785462876</v>
@@ -1225,7 +1225,7 @@
         <v>33.29884490714965</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>39.1024209456769</v>
+        <v>39.10242094567691</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>13.72627310543333</v>
@@ -1237,7 +1237,7 @@
         <v>31.14794493695885</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>35.21446329536687</v>
+        <v>35.21446329536686</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.900378895295974</v>
+        <v>9.026050672009532</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.49931353046653</v>
+        <v>22.91284163876379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24.93225119866672</v>
+        <v>24.65463498901224</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25.25787010779318</v>
+        <v>24.56707168744439</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.388213287167983</v>
+        <v>5.439221488187715</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>22.12087899877403</v>
+        <v>21.95674706604508</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>26.22930832330771</v>
+        <v>26.71885693829925</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>30.64027315569217</v>
+        <v>31.14939113180271</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.719272930410716</v>
+        <v>9.051502975907116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24.30960654984997</v>
+        <v>24.14349336038204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26.89366266942959</v>
+        <v>26.74164456572493</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>29.72978214733779</v>
+        <v>29.6021968939012</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>38.24517269638365</v>
+        <v>35.94706730059725</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>39.49736813486186</v>
+        <v>39.23518997283197</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36.22456745484393</v>
+        <v>36.40823176013592</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39.80959475159141</v>
+        <v>40.04697764934946</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>15.15654009440963</v>
+        <v>14.40587574126402</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>69.98275766182013</v>
+        <v>66.94209707524668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>41.78143794559126</v>
+        <v>41.73449506934648</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>50.85049666239333</v>
+        <v>50.07971428754653</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>28.58469297838625</v>
+        <v>28.01855102485545</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41.5697612401797</v>
+        <v>39.95855504920518</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36.1019275719348</v>
+        <v>36.71582083342478</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>41.96756433009956</v>
+        <v>43.04510325009928</v>
       </c>
     </row>
     <row r="19">
@@ -1393,15 +1393,15 @@
         <v>4</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>11.20913314323484</v>
+        <v>12.14905668420418</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="n">
-        <v>5.536080084515567</v>
+        <v>3.3951940938977</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>9.130116770507948</v>
+        <v>9.708164104593113</v>
       </c>
     </row>
     <row r="21">
@@ -1425,15 +1425,15 @@
         <v>72</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>67.3235152937507</v>
+        <v>72.60817752457638</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>62.68327294208543</v>
+        <v>58.81186278863463</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>53.59454108897721</v>
+        <v>55.36316933655056</v>
       </c>
     </row>
     <row r="22">
@@ -1563,7 +1563,7 @@
         <v>21.11206048324177</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>22.02294095928416</v>
+        <v>22.02294095928415</v>
       </c>
     </row>
     <row r="26">
@@ -1574,40 +1574,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.089061163832629</v>
+        <v>5.023292403079854</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>13.78721832113334</v>
+        <v>13.76960359460213</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17.99768458502254</v>
+        <v>18.09193604689869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17.47423101930758</v>
+        <v>17.27491113548475</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>6.206637117195412</v>
+        <v>6.229717429485234</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>16.33764490731746</v>
+        <v>16.4300368162188</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>20.66271396868079</v>
+        <v>20.75162596118223</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>20.42259117753012</v>
+        <v>20.42786648242937</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>5.973077928389648</v>
+        <v>5.921954389425972</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15.2664773101985</v>
+        <v>15.21308482675411</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19.70791717425502</v>
+        <v>19.72955349988873</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>19.87585070146598</v>
+        <v>19.87790716121866</v>
       </c>
     </row>
     <row r="27">
@@ -1618,40 +1618,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.308414157925231</v>
+        <v>8.569918593295595</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.58295162873127</v>
+        <v>16.93177684667784</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21.37410181307352</v>
+        <v>21.42682816062563</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>24.10232546843733</v>
+        <v>23.9269616570053</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>11.00145891871105</v>
+        <v>10.99876297603831</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>20.67162350612848</v>
+        <v>20.6143978051199</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>25.01118771467042</v>
+        <v>25.38544080170061</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>27.11368174204094</v>
+        <v>26.90540685326727</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>8.710525281782676</v>
+        <v>8.78283494484228</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17.62793364761281</v>
+        <v>17.71276665913414</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>22.59109651474337</v>
+        <v>22.59166687278503</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>24.73425338799832</v>
+        <v>24.57209262760883</v>
       </c>
     </row>
     <row r="28">
